--- a/documents/timeManage/TimeManage_ZYJ.xlsx
+++ b/documents/timeManage/TimeManage_ZYJ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>日期</t>
   </si>
@@ -84,6 +84,14 @@
   </si>
   <si>
     <t>设计游戏《可爱糖果对对碰》思路，并上传</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.4.16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据周日的讨论，重新设计《贪食家族》游戏，并上传</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -454,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -553,6 +561,17 @@
       </c>
       <c r="D7">
         <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="27">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timeManage/TimeManage_ZYJ.xlsx
+++ b/documents/timeManage/TimeManage_ZYJ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>日期</t>
   </si>
@@ -92,6 +92,35 @@
   </si>
   <si>
     <t>根据周日的讨论，重新设计《贪食家族》游戏，并上传</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19代码结构（19或20号晚上） 22 框架完成            26完成小鸟   31仓库</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.4.18-4.31</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.4.19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成代码架构设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.4.20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精灵在子节点无法显示，新加触摸层代码需求，
+还需要对界面重新划分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成部分原始框架代码编码，已上传git</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -152,7 +181,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -166,6 +195,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -462,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -571,6 +606,41 @@
         <v>19</v>
       </c>
       <c r="D8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="27">
+      <c r="A9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="27">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11">
         <v>4</v>
       </c>
     </row>

--- a/documents/timeManage/TimeManage_ZYJ.xlsx
+++ b/documents/timeManage/TimeManage_ZYJ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>日期</t>
   </si>
@@ -121,6 +121,30 @@
   </si>
   <si>
     <t>完成部分原始框架代码编码，已上传git</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.4.21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改调试框架代码，精灵可以显示，加入触摸层代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>触摸层没有释放子节点，场景转换会断错</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.4.22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入触摸接口后，无法dealloc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试代码发现触摸层不能被自动释放，加入触摸层的pause，bag相关代码</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -497,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -642,6 +666,34 @@
       </c>
       <c r="D11">
         <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="27">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="27">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timeManage/TimeManage_ZYJ.xlsx
+++ b/documents/timeManage/TimeManage_ZYJ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>日期</t>
   </si>
@@ -145,6 +145,39 @@
   </si>
   <si>
     <t>调试代码发现触摸层不能被自动释放，加入触摸层的pause，bag相关代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.4.25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将新素材加入纹理图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.4.26</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.4.27</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步完成飞行动物的动画</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景切换，body释放会段错，现在暂时没有释放。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精灵在entity里申明的，显示不出来，必须要在子类再次申明一下。没明白为什么。
+飞行动物碰撞边框后，方向有点错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.加入飞行动画。2.调试场景切换bug，未成功。3.修改一处操作，要先触摸到飞行动物才能移动。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -521,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -694,6 +727,45 @@
       </c>
       <c r="D13">
         <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="40.5">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="40.5">
+      <c r="A16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timeManage/TimeManage_ZYJ.xlsx
+++ b/documents/timeManage/TimeManage_ZYJ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="20940" windowHeight="8685"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="14790" windowHeight="6210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>日期</t>
   </si>
@@ -178,6 +178,26 @@
   </si>
   <si>
     <t>1.加入飞行动画。2.调试场景切换bug，未成功。3.修改一处操作，要先触摸到飞行动物才能移动。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.4.28</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写仓库代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.4.29</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步完成仓库加入 消除代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作添加了，但是没有显示出来</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -554,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -765,6 +785,31 @@
         <v>39</v>
       </c>
       <c r="D16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18">
         <v>3</v>
       </c>
     </row>

--- a/documents/timeManage/TimeManage_ZYJ.xlsx
+++ b/documents/timeManage/TimeManage_ZYJ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>日期</t>
   </si>
@@ -198,6 +198,22 @@
   </si>
   <si>
     <t>动作添加了，但是没有显示出来</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.5.4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入属性球，和背包触摸控制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.5.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用menu类为背包添加图像</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -574,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -810,6 +826,28 @@
         <v>45</v>
       </c>
       <c r="D18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20">
         <v>3</v>
       </c>
     </row>

--- a/documents/timeManage/TimeManage_ZYJ.xlsx
+++ b/documents/timeManage/TimeManage_ZYJ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>日期</t>
   </si>
@@ -214,6 +214,22 @@
   </si>
   <si>
     <t>用menu类为背包添加图像</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.5.7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入计分系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.5.8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试计分显示 加入提示音</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -590,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -849,6 +865,28 @@
       </c>
       <c r="D20">
         <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timeManage/TimeManage_ZYJ.xlsx
+++ b/documents/timeManage/TimeManage_ZYJ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>日期</t>
   </si>
@@ -230,6 +230,18 @@
   </si>
   <si>
     <t>调试计分显示 加入提示音</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.5.31</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联调测试，改bug。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从下落，到得分，已经基本调通</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -606,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -887,6 +899,20 @@
       </c>
       <c r="D22">
         <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timeManage/TimeManage_ZYJ.xlsx
+++ b/documents/timeManage/TimeManage_ZYJ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>日期</t>
   </si>
@@ -242,6 +242,34 @@
   </si>
   <si>
     <t>从下落，到得分，已经基本调通</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究通知模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要开发者账户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计关卡，调试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡调试，糖果运行轨迹调试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.6.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.6.6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.6.7</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -618,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -913,6 +941,42 @@
       </c>
       <c r="D23">
         <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timeManage/TimeManage_ZYJ.xlsx
+++ b/documents/timeManage/TimeManage_ZYJ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>日期</t>
   </si>
@@ -270,6 +270,58 @@
   </si>
   <si>
     <t>2012.6.7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.6.17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据设计，代码修改实现20关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20关卡设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组会议</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.小鸟控制修改：改为手势控制；2消分判断修改：仓库最后3个一样才能触发消分。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消分时现在是从左到右遍历，需要改为从右向左遍历</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.6.15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.6.14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>碰撞后糖果运行轨迹还需要更好的算法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续可以加入包装的糖果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.6.10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.6.21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入包装糖果，修改消分时从右往左遍历</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -646,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -975,8 +1027,69 @@
       <c r="B26" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="C26" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="D26">
         <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="27">
+      <c r="A27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31">
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timeManage/TimeManage_ZYJ.xlsx
+++ b/documents/timeManage/TimeManage_ZYJ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="14790" windowHeight="6210"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="11175" windowHeight="6210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>日期</t>
   </si>
@@ -317,11 +317,51 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>加入包装糖果，修改消分时从右往左遍历</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.6.20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>2012.6.21</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>加入包装糖果，修改消分时从右往左遍历</t>
+    <t>加入关卡结束判断接口，加入屏幕最多存在角色限制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.6.22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新设计关卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1白色球出现瞬间有问题， 2撞球后球下落方向， 3小鸟持续控制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.6.25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改白球出现有延时情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当球运动很快还是会出现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.6.24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改撞墙后下落方向， 添加动画</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -698,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1083,13 +1123,63 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="D31">
         <v>3.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="27">
+      <c r="A32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timeManage/TimeManage_ZYJ.xlsx
+++ b/documents/timeManage/TimeManage_ZYJ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>日期</t>
   </si>
@@ -362,6 +362,14 @@
   </si>
   <si>
     <t>修改撞墙后下落方向， 添加动画</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.6.28</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改一处属性球bug，判断球回收为hitpoint为-1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -738,9 +746,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
@@ -1180,6 +1188,17 @@
       </c>
       <c r="D35">
         <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="27">
+      <c r="A36" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timeManage/TimeManage_ZYJ.xlsx
+++ b/documents/timeManage/TimeManage_ZYJ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
   <si>
     <t>日期</t>
   </si>
@@ -370,6 +370,58 @@
   </si>
   <si>
     <t>修改一处属性球bug，判断球回收为hitpoint为-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.7.9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.7.8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加消息推送模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试消息推送模块；添加gamecenter模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.7.6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究通过gamecenter的多人游戏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.7.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.6.30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究用开发者账号真机调试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.7.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究parse，可以通过parse存储，地图，推送等</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.7.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究推送模块，调试成功</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -746,10 +798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1199,6 +1251,83 @@
       </c>
       <c r="D36">
         <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="1" customFormat="1" ht="27">
+      <c r="A38" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timeManage/TimeManage_ZYJ.xlsx
+++ b/documents/timeManage/TimeManage_ZYJ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="104">
   <si>
     <t>日期</t>
   </si>
@@ -422,6 +422,14 @@
   </si>
   <si>
     <t>研究推送模块，调试成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.7.15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改落地方向 和 弹力过大bug</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -798,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1328,6 +1336,17 @@
       </c>
       <c r="D43">
         <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timeManage/TimeManage_ZYJ.xlsx
+++ b/documents/timeManage/TimeManage_ZYJ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="106">
   <si>
     <t>日期</t>
   </si>
@@ -430,6 +430,14 @@
   </si>
   <si>
     <t>修改落地方向 和 弹力过大bug</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.7.16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整 prop代码，加入加速 减速属性球。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -806,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1347,6 +1355,17 @@
       </c>
       <c r="D44">
         <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timeManage/TimeManage_ZYJ.xlsx
+++ b/documents/timeManage/TimeManage_ZYJ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="110">
   <si>
     <t>日期</t>
   </si>
@@ -438,6 +438,22 @@
   </si>
   <si>
     <t>调整 prop代码，加入加速 减速属性球。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.7.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>辣椒和水晶球变为可储存状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.7.19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入新代码后，初步完成调试</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -814,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="D50" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1366,6 +1382,28 @@
       </c>
       <c r="D45">
         <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D47">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timeManage/TimeManage_ZYJ.xlsx
+++ b/documents/timeManage/TimeManage_ZYJ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="112">
   <si>
     <t>日期</t>
   </si>
@@ -454,6 +454,14 @@
   </si>
   <si>
     <t>加入新代码后，初步完成调试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.7.19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究特效。初步加入气球破裂和球落地特效</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -830,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D50" sqref="A1:XFD1048576"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1404,6 +1412,17 @@
       </c>
       <c r="D47">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timeManage/TimeManage_ZYJ.xlsx
+++ b/documents/timeManage/TimeManage_ZYJ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="121">
   <si>
     <t>日期</t>
   </si>
@@ -462,6 +462,44 @@
   </si>
   <si>
     <t>研究特效。初步加入气球破裂和球落地特效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入动物中属性球特效  加入小猪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.7.20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.7.21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组会议</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.7.22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>把飞行动物动画减少为2个方向。添加一些仓库
+action</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞行动物动画需要精细化处理。比如眨眼，蹬腿。
+和随着飞行速度改变翅膀频率。动画像素改变方法还没找到</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效效果需要再调。 得分特效还没找到怎么做</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲历北京有史以来最大暴雨</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -838,10 +876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1423,6 +1461,45 @@
       </c>
       <c r="D48">
         <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="40.5">
+      <c r="A51" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D51">
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timeManage/TimeManage_ZYJ.xlsx
+++ b/documents/timeManage/TimeManage_ZYJ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="124">
   <si>
     <t>日期</t>
   </si>
@@ -500,6 +500,19 @@
   </si>
   <si>
     <t>亲历北京有史以来最大暴雨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.7.22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入根据飞行速度调节翅膀频率。加入落地
+物品消失action</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶球削球有bug。未找出</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -876,10 +889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1500,6 +1513,20 @@
       </c>
       <c r="D51">
         <v>2.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="27">
+      <c r="A52" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timeManage/TimeManage_ZYJ.xlsx
+++ b/documents/timeManage/TimeManage_ZYJ.xlsx
@@ -508,11 +508,12 @@
   </si>
   <si>
     <t>加入根据飞行速度调节翅膀频率。加入落地
-物品消失action</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>水晶球削球有bug。未找出</t>
+物品消失action。仓库满时，改为把第一个挤掉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶球削球好像有bug。未找出。看代码没看出来
+仓库削球效果没有层次感</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -892,7 +893,7 @@
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1515,18 +1516,18 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="27">
+    <row r="52" spans="1:4" ht="40.5">
       <c r="A52" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="2" t="s">
         <v>123</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timeManage/TimeManage_ZYJ.xlsx
+++ b/documents/timeManage/TimeManage_ZYJ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="126">
   <si>
     <t>日期</t>
   </si>
@@ -514,6 +514,14 @@
   <si>
     <t>水晶球削球好像有bug。未找出。看代码没看出来
 仓库削球效果没有层次感</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.7.23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入剩余球计数；调整动画；手机设置图标</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -890,10 +898,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1527,6 +1535,17 @@
         <v>123</v>
       </c>
       <c r="D52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D53">
         <v>4</v>
       </c>
     </row>

--- a/documents/timeManage/TimeManage_ZYJ.xlsx
+++ b/documents/timeManage/TimeManage_ZYJ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="131">
   <si>
     <t>日期</t>
   </si>
@@ -522,6 +522,26 @@
   </si>
   <si>
     <t>加入剩余球计数；调整动画；手机设置图标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.7.24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入每次得分显示，以及特效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果不是很满意，特别是特效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.7.25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入削球特效。和飞行动物速度达到一定时特效效果一般</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -898,10 +918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1547,6 +1567,31 @@
       </c>
       <c r="D53">
         <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timeManage/TimeManage_ZYJ.xlsx
+++ b/documents/timeManage/TimeManage_ZYJ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="133">
   <si>
     <t>日期</t>
   </si>
@@ -542,6 +542,14 @@
   </si>
   <si>
     <t>加入削球特效。和飞行动物速度达到一定时特效效果一般</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.7.28+29</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加game center的排行榜和成就</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -918,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1592,6 +1600,17 @@
       </c>
       <c r="D55">
         <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D56">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timeManage/TimeManage_ZYJ.xlsx
+++ b/documents/timeManage/TimeManage_ZYJ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="138">
   <si>
     <t>日期</t>
   </si>
@@ -550,6 +550,26 @@
   </si>
   <si>
     <t>增加game center的排行榜和成就</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.7.30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加较色切换  累计得分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.7.31+8.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加商店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储数据老被清0.或读错。是不是没有初始化？</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -926,10 +946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1611,6 +1631,31 @@
       </c>
       <c r="D56">
         <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D58">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timeManage/TimeManage_ZYJ.xlsx
+++ b/documents/timeManage/TimeManage_ZYJ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="149">
   <si>
     <t>日期</t>
   </si>
@@ -570,6 +570,50 @@
   </si>
   <si>
     <t>存储数据老被清0.或读错。是不是没有初始化？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加 ipad版的 双人对战模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多点触摸还没搞定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加 ipad版本 更改size</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搞定 存储bug</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加 反向属性球</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改一些特效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.8.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.8.4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.8.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.8.8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.8.9</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -946,10 +990,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1656,6 +1700,64 @@
       </c>
       <c r="D58">
         <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D63">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timeManage/TimeManage_ZYJ.xlsx
+++ b/documents/timeManage/TimeManage_ZYJ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="157">
   <si>
     <t>日期</t>
   </si>
@@ -614,6 +614,38 @@
   </si>
   <si>
     <t>2012.8.9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.8.11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.8.10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.8.12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.8.13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步两版本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改改变方向属性球</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加本地通知</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">添加属性球 包装   </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -990,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1758,6 +1790,50 @@
       </c>
       <c r="D63">
         <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timeManage/TimeManage_ZYJ.xlsx
+++ b/documents/timeManage/TimeManage_ZYJ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="179">
   <si>
     <t>日期</t>
   </si>
@@ -646,6 +646,95 @@
   </si>
   <si>
     <t xml:space="preserve">添加属性球 包装   </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组会议</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改loading界面 初步制作教学图片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作 开发者展示界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面风格不统一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教学界面需要调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.8.9.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.8.9.9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.8.9.16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.8.9.22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.8.9.20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成暂停时教学界面，调整暂停界面摆设</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成开始弹出教学界面;初步制作暂停时教学界面;调整商店等图标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整奖励，出属性球策略</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加熊猫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改纹理图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.10.23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.10.24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加仓库可用和不可用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理z轴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.11.3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.11.4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1022,10 +1111,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1833,6 +1922,116 @@
         <v>153</v>
       </c>
       <c r="D67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="27">
+      <c r="A71" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="B73" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D77">
         <v>3</v>
       </c>
     </row>

--- a/documents/timeManage/TimeManage_ZYJ.xlsx
+++ b/documents/timeManage/TimeManage_ZYJ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="185">
   <si>
     <t>日期</t>
   </si>
@@ -735,6 +735,30 @@
   </si>
   <si>
     <t>2012.11.4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步到Ipad</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加角色属性设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.11.17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.11.14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要修改一些参数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要微调，角色能力值需要修改</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1111,10 +1135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2033,6 +2057,34 @@
       </c>
       <c r="D77">
         <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D79">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timeManage/TimeManage_ZYJ.xlsx
+++ b/documents/timeManage/TimeManage_ZYJ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="192">
   <si>
     <t>日期</t>
   </si>
@@ -759,6 +759,34 @@
   </si>
   <si>
     <t>需要微调，角色能力值需要修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改商店 和 角色能力值接口封装</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.11.22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.11.24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘云鹏，赵羽佳，万元 集中开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重建ipad。调整角色值。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.11.25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>load game添加 教学图片</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1135,10 +1163,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2084,6 +2112,42 @@
         <v>184</v>
       </c>
       <c r="D79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D80">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D81">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D82">
         <v>4</v>
       </c>
     </row>

--- a/documents/timeManage/TimeManage_ZYJ.xlsx
+++ b/documents/timeManage/TimeManage_ZYJ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="198">
   <si>
     <t>日期</t>
   </si>
@@ -787,6 +787,30 @@
   </si>
   <si>
     <t>load game添加 教学图片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.11.25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码结构重构，ipad同步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.12.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束界面，字体，特效，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘云鹏，赵羽佳，刘晋 集中开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色进度条修改</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1163,10 +1187,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView tabSelected="1" topLeftCell="B67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2149,6 +2173,39 @@
       </c>
       <c r="D82">
         <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D84">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="B85" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timeManage/TimeManage_ZYJ.xlsx
+++ b/documents/timeManage/TimeManage_ZYJ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="203">
   <si>
     <t>日期</t>
   </si>
@@ -811,6 +811,26 @@
   </si>
   <si>
     <t>角色进度条修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.12.8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.12.4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改开始界面特效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.12.9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改loading界面 教学 和 展示  修改奶酪下落轨迹</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1187,10 +1207,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView tabSelected="1" topLeftCell="C67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2201,11 +2221,36 @@
       </c>
     </row>
     <row r="85" spans="1:4">
+      <c r="A85" s="1" t="s">
+        <v>199</v>
+      </c>
       <c r="B85" s="1" t="s">
         <v>197</v>
       </c>
       <c r="D85">
         <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D87">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/documents/timeManage/TimeManage_ZYJ.xlsx
+++ b/documents/timeManage/TimeManage_ZYJ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="209">
   <si>
     <t>日期</t>
   </si>
@@ -831,6 +831,30 @@
   </si>
   <si>
     <t>修改loading界面 教学 和 展示  修改奶酪下落轨迹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.12.10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.12.11-12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加首页的教学界面，修改图标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加achievement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.12.15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新图片</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1207,10 +1231,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85"/>
+    <sheetView tabSelected="1" topLeftCell="B73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2251,6 +2275,39 @@
       </c>
       <c r="D87">
         <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D90">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
